--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H2">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="N2">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="O2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="P2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="Q2">
-        <v>18.26644681406134</v>
+        <v>0.056022420496</v>
       </c>
       <c r="R2">
-        <v>164.398021326552</v>
+        <v>0.504201784464</v>
       </c>
       <c r="S2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="T2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H3">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>19.113044</v>
       </c>
       <c r="O3">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="P3">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="Q3">
-        <v>16.34882850618622</v>
+        <v>0.090098889416</v>
       </c>
       <c r="R3">
-        <v>147.139456555676</v>
+        <v>0.8108900047439999</v>
       </c>
       <c r="S3">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="T3">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H4">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>7.154496</v>
       </c>
       <c r="O4">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="P4">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="Q4">
-        <v>6.119780195776</v>
+        <v>0.033726294144</v>
       </c>
       <c r="R4">
-        <v>55.078021761984</v>
+        <v>0.303536647296</v>
       </c>
       <c r="S4">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="T4">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
     </row>
   </sheetData>
